--- a/DataFile/1_PASS/REWARD_TABLE.xlsx
+++ b/DataFile/1_PASS/REWARD_TABLE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>uint</t>
   </si>
@@ -28,88 +28,175 @@
     <t>IMAGEPATH</t>
   </si>
   <si>
+    <t>STRINGKEY</t>
+  </si>
+  <si>
     <t>img_accountexp</t>
   </si>
   <si>
+    <t>item_description_01</t>
+  </si>
+  <si>
     <t>img_passexp</t>
   </si>
   <si>
+    <t>item_description_02</t>
+  </si>
+  <si>
     <t>img_gold</t>
   </si>
   <si>
+    <t>item_description_03</t>
+  </si>
+  <si>
     <t>img_dia</t>
   </si>
   <si>
+    <t>item_description_04</t>
+  </si>
+  <si>
     <t>img_character001</t>
   </si>
   <si>
+    <t>item_description_05</t>
+  </si>
+  <si>
     <t>img_character002</t>
   </si>
   <si>
+    <t>item_description_06</t>
+  </si>
+  <si>
     <t>img_character003</t>
   </si>
   <si>
+    <t>item_description_07</t>
+  </si>
+  <si>
     <t>img_character004</t>
   </si>
   <si>
+    <t>item_description_08</t>
+  </si>
+  <si>
     <t>img_character005</t>
   </si>
   <si>
+    <t>item_description_09</t>
+  </si>
+  <si>
     <t>img_character006</t>
   </si>
   <si>
+    <t>item_description_10</t>
+  </si>
+  <si>
     <t>img_character007</t>
   </si>
   <si>
+    <t>item_description_11</t>
+  </si>
+  <si>
     <t>img_character008</t>
   </si>
   <si>
+    <t>item_description_12</t>
+  </si>
+  <si>
     <t>img_character009</t>
   </si>
   <si>
+    <t>item_description_13</t>
+  </si>
+  <si>
     <t>img_character010</t>
   </si>
   <si>
+    <t>item_description_14</t>
+  </si>
+  <si>
     <t>img_item001</t>
   </si>
   <si>
+    <t>item_description_15</t>
+  </si>
+  <si>
     <t>img_item002</t>
   </si>
   <si>
+    <t>item_description_16</t>
+  </si>
+  <si>
     <t>img_item003</t>
   </si>
   <si>
+    <t>item_description_17</t>
+  </si>
+  <si>
     <t>img_item004</t>
   </si>
   <si>
+    <t>item_description_18</t>
+  </si>
+  <si>
     <t>img_item005</t>
   </si>
   <si>
+    <t>item_description_19</t>
+  </si>
+  <si>
     <t>img_item006</t>
   </si>
   <si>
+    <t>item_description_20</t>
+  </si>
+  <si>
     <t>img_item007</t>
   </si>
   <si>
+    <t>item_description_21</t>
+  </si>
+  <si>
     <t>img_item008</t>
   </si>
   <si>
+    <t>item_description_22</t>
+  </si>
+  <si>
     <t>img_item009</t>
   </si>
   <si>
+    <t>item_description_23</t>
+  </si>
+  <si>
     <t>img_item010</t>
   </si>
   <si>
+    <t>item_description_24</t>
+  </si>
+  <si>
     <t>img_item011</t>
   </si>
   <si>
+    <t>item_description_25</t>
+  </si>
+  <si>
     <t>img_item012</t>
   </si>
   <si>
+    <t>item_description_26</t>
+  </si>
+  <si>
     <t>img_item013</t>
   </si>
   <si>
+    <t>item_description_27</t>
+  </si>
+  <si>
     <t>img_item014</t>
+  </si>
+  <si>
+    <t>item_description_28</t>
   </si>
 </sst>
 </file>
@@ -129,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +229,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -149,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -158,6 +251,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,6 +472,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="14.38"/>
+    <col customWidth="1" min="4" max="4" width="15.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -388,6 +485,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -399,6 +499,9 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -408,7 +511,10 @@
         <v>100.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -419,7 +525,10 @@
         <v>100.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -430,7 +539,10 @@
         <v>1000.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -441,7 +553,10 @@
         <v>100.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -452,7 +567,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -463,7 +581,10 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -474,7 +595,10 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -485,7 +609,10 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -496,7 +623,10 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -507,7 +637,10 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -518,7 +651,10 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -529,7 +665,10 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -540,7 +679,10 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -551,7 +693,10 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -562,7 +707,10 @@
         <v>1.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +721,10 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +735,10 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +749,10 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +763,10 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -617,7 +777,10 @@
         <v>1.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -628,7 +791,10 @@
         <v>1.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -639,7 +805,10 @@
         <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -650,7 +819,10 @@
         <v>1.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -661,7 +833,10 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -672,7 +847,10 @@
         <v>1.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -683,7 +861,10 @@
         <v>1.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -694,7 +875,10 @@
         <v>1.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -705,7 +889,10 @@
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
